--- a/attendance/DiemDanh.xlsx
+++ b/attendance/DiemDanh.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
@@ -384,7 +384,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Attendance Session 29 - 29-September-2023</t>
+          <t>Attendance Session 29 - 04-November-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -408,7 +408,11 @@
         </is>
       </c>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance Session 35 - 04-November-2023</t>
+        </is>
+      </c>
       <c r="I1" t="inlineStr">
         <is>
           <t>Attendance Session 4 - 04-November-2023</t>
@@ -419,9 +423,14 @@
           <t>Attendance Session 5 - 04-November-2023</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Attendance Session 10 - 04-November-2023</t>
+        </is>
+      </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Da gui Email</t>
+          <t>Attendance Session 19 - 04-November-2023</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
@@ -469,12 +478,20 @@
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="n"/>
+      <c r="O2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -512,9 +529,20 @@
       <c r="L3" s="1" t="n"/>
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
       <c r="Y3" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -552,9 +580,20 @@
       <c r="L4" s="1" t="n"/>
       <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
       <c r="Y4" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,9 +631,20 @@
       <c r="L5" s="1" t="n"/>
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
       <c r="Y5" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,9 +682,20 @@
       <c r="L6" s="1" t="n"/>
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
       <c r="Y6" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -672,9 +733,20 @@
       <c r="L7" s="1" t="n"/>
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
       <c r="Y7" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -712,9 +784,20 @@
       <c r="L8" s="1" t="n"/>
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
       <c r="Y8" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -752,9 +835,20 @@
       <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
       <c r="Y9" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -792,9 +886,20 @@
       <c r="L10" s="1" t="n"/>
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
+      <c r="O10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
       <c r="Y10" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -832,9 +937,20 @@
       <c r="L11" s="1" t="n"/>
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
       <c r="Y11" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -872,9 +988,20 @@
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
+      <c r="O12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
       <c r="Y12" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -912,9 +1039,20 @@
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
+      <c r="O13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
       <c r="Y13" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -952,9 +1090,20 @@
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
-      <c r="O14" s="1" t="n"/>
+      <c r="O14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
       <c r="Y14" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -992,9 +1141,20 @@
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
+      <c r="O15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
       <c r="Y15" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1032,9 +1192,20 @@
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
+      <c r="O16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
       <c r="Y16" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1072,9 +1243,20 @@
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
+      <c r="O17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
       <c r="Y17" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1112,9 +1294,20 @@
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
+      <c r="O18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
       <c r="Y18" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1152,9 +1345,20 @@
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
-      <c r="O19" s="1" t="n"/>
+      <c r="O19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
       <c r="Y19" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1192,9 +1396,20 @@
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
       <c r="Y20" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1232,9 +1447,20 @@
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
-      <c r="O21" s="1" t="n"/>
+      <c r="O21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
       <c r="Y21" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1272,9 +1498,20 @@
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
+      <c r="O22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
       <c r="Y22" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1312,9 +1549,20 @@
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
-      <c r="O23" s="1" t="n"/>
+      <c r="O23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
       <c r="Y23" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1352,9 +1600,20 @@
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
-      <c r="O24" s="1" t="n"/>
+      <c r="O24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
       <c r="Y24" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1392,9 +1651,20 @@
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
-      <c r="O25" s="1" t="n"/>
+      <c r="O25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
       <c r="Y25" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1432,9 +1702,20 @@
       <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
-      <c r="O26" s="1" t="n"/>
+      <c r="O26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
       <c r="Y26" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1472,9 +1753,20 @@
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
-      <c r="O27" s="1" t="n"/>
+      <c r="O27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
       <c r="Y27" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1512,9 +1804,20 @@
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
-      <c r="O28" s="1" t="n"/>
+      <c r="O28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="b">
+        <v>0</v>
+      </c>
       <c r="Y28" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1552,9 +1855,20 @@
       <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
-      <c r="O29" s="1" t="n"/>
+      <c r="O29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>0</v>
+      </c>
       <c r="Y29" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1592,9 +1906,20 @@
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
+      <c r="O30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
       <c r="Y30" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1632,9 +1957,20 @@
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
-      <c r="O31" s="1" t="n"/>
+      <c r="O31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
       <c r="Y31" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1672,9 +2008,20 @@
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
-      <c r="O32" s="1" t="n"/>
+      <c r="O32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
       <c r="Y32" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1712,9 +2059,20 @@
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
-      <c r="O33" s="1" t="n"/>
+      <c r="O33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
       <c r="Y33" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1752,9 +2110,20 @@
       <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
-      <c r="O34" s="1" t="n"/>
+      <c r="O34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
       <c r="Y34" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1792,9 +2161,20 @@
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
-      <c r="O35" s="1" t="n"/>
+      <c r="O35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
       <c r="Y35" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1832,9 +2212,20 @@
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
-      <c r="O36" s="1" t="n"/>
+      <c r="O36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
       <c r="Y36" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1872,9 +2263,20 @@
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
-      <c r="O37" s="1" t="n"/>
+      <c r="O37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
       <c r="Y37" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1912,9 +2314,20 @@
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
-      <c r="O38" s="1" t="n"/>
+      <c r="O38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
       <c r="Y38" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1952,9 +2365,20 @@
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
-      <c r="O39" s="1" t="n"/>
+      <c r="O39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
       <c r="Y39" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1992,9 +2416,20 @@
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
-      <c r="O40" s="1" t="n"/>
+      <c r="O40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
       <c r="Y40" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2032,9 +2467,20 @@
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
-      <c r="O41" s="1" t="n"/>
+      <c r="O41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
       <c r="Y41" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2072,9 +2518,20 @@
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n"/>
+      <c r="O42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
       <c r="Y42" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2112,9 +2569,20 @@
       <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
-      <c r="O43" s="1" t="n"/>
+      <c r="O43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
       <c r="Y43" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2152,9 +2620,20 @@
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n"/>
+      <c r="O44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
       <c r="Y44" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2192,9 +2671,20 @@
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n"/>
       <c r="N45" s="1" t="n"/>
-      <c r="O45" s="1" t="n"/>
+      <c r="O45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X45" t="b">
+        <v>0</v>
+      </c>
       <c r="Y45" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2232,9 +2722,20 @@
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
-      <c r="O46" s="1" t="n"/>
+      <c r="O46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46" t="b">
+        <v>0</v>
+      </c>
       <c r="Y46" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2272,9 +2773,20 @@
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n"/>
       <c r="N47" s="1" t="n"/>
-      <c r="O47" s="1" t="n"/>
+      <c r="O47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" t="b">
+        <v>0</v>
+      </c>
       <c r="Y47" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2312,9 +2824,20 @@
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
-      <c r="O48" s="1" t="n"/>
+      <c r="O48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48" t="b">
+        <v>0</v>
+      </c>
       <c r="Y48" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2352,9 +2875,20 @@
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n"/>
       <c r="N49" s="1" t="n"/>
-      <c r="O49" s="1" t="n"/>
+      <c r="O49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
       <c r="Y49" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2392,9 +2926,20 @@
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
-      <c r="O50" s="1" t="n"/>
+      <c r="O50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
       <c r="Y50" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2432,9 +2977,20 @@
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n"/>
       <c r="N51" s="1" t="n"/>
-      <c r="O51" s="1" t="n"/>
+      <c r="O51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X51" t="b">
+        <v>0</v>
+      </c>
       <c r="Y51" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2472,9 +3028,20 @@
       <c r="L52" s="1" t="n"/>
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
-      <c r="O52" s="1" t="n"/>
+      <c r="O52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X52" t="b">
+        <v>0</v>
+      </c>
       <c r="Y52" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2512,9 +3079,20 @@
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n"/>
       <c r="N53" s="1" t="n"/>
-      <c r="O53" s="1" t="n"/>
+      <c r="O53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X53" t="b">
+        <v>0</v>
+      </c>
       <c r="Y53" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2552,9 +3130,20 @@
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
-      <c r="O54" s="1" t="n"/>
+      <c r="O54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X54" t="b">
+        <v>0</v>
+      </c>
       <c r="Y54" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2592,9 +3181,20 @@
       <c r="L55" s="1" t="n"/>
       <c r="M55" s="1" t="n"/>
       <c r="N55" s="1" t="n"/>
-      <c r="O55" s="1" t="n"/>
+      <c r="O55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X55" t="b">
+        <v>0</v>
+      </c>
       <c r="Y55" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2632,9 +3232,20 @@
       <c r="L56" s="1" t="n"/>
       <c r="M56" s="1" t="n"/>
       <c r="N56" s="1" t="n"/>
-      <c r="O56" s="1" t="n"/>
+      <c r="O56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X56" t="b">
+        <v>0</v>
+      </c>
       <c r="Y56" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2672,9 +3283,20 @@
       <c r="L57" s="1" t="n"/>
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
-      <c r="O57" s="1" t="n"/>
+      <c r="O57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X57" t="b">
+        <v>0</v>
+      </c>
       <c r="Y57" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2712,9 +3334,20 @@
       <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n"/>
       <c r="N58" s="1" t="n"/>
-      <c r="O58" s="1" t="n"/>
+      <c r="O58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X58" t="b">
+        <v>0</v>
+      </c>
       <c r="Y58" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2752,9 +3385,20 @@
       <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
-      <c r="O59" s="1" t="n"/>
+      <c r="O59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X59" t="b">
+        <v>0</v>
+      </c>
       <c r="Y59" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2792,9 +3436,20 @@
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
-      <c r="O60" s="1" t="n"/>
+      <c r="O60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" t="b">
+        <v>0</v>
+      </c>
       <c r="Y60" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2832,9 +3487,20 @@
       <c r="L61" s="1" t="n"/>
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
-      <c r="O61" s="1" t="n"/>
+      <c r="O61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X61" t="b">
+        <v>0</v>
+      </c>
       <c r="Y61" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2872,9 +3538,20 @@
       <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n"/>
       <c r="N62" s="1" t="n"/>
-      <c r="O62" s="1" t="n"/>
+      <c r="O62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X62" t="b">
+        <v>0</v>
+      </c>
       <c r="Y62" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2912,9 +3589,20 @@
       <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
-      <c r="O63" s="1" t="n"/>
+      <c r="O63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X63" t="b">
+        <v>0</v>
+      </c>
       <c r="Y63" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2952,9 +3640,20 @@
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
-      <c r="O64" s="1" t="n"/>
+      <c r="O64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X64" t="b">
+        <v>0</v>
+      </c>
       <c r="Y64" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2992,9 +3691,20 @@
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
-      <c r="O65" s="1" t="n"/>
+      <c r="O65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X65" t="b">
+        <v>0</v>
+      </c>
       <c r="Y65" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3032,9 +3742,20 @@
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
-      <c r="O66" s="1" t="n"/>
+      <c r="O66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X66" t="b">
+        <v>0</v>
+      </c>
       <c r="Y66" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3072,9 +3793,20 @@
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
-      <c r="O67" s="1" t="n"/>
+      <c r="O67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" t="b">
+        <v>0</v>
+      </c>
       <c r="Y67" s="6" t="n">
         <v>2</v>
+      </c>
+      <c r="AH67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3112,9 +3844,20 @@
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
-      <c r="O68" s="1" t="n"/>
+      <c r="O68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X68" t="b">
+        <v>1</v>
+      </c>
       <c r="Y68" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="AH68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3152,9 +3895,20 @@
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n"/>
       <c r="N69" s="1" t="n"/>
-      <c r="O69" s="1" t="n"/>
+      <c r="O69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X69" t="b">
+        <v>0</v>
+      </c>
       <c r="Y69" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3192,9 +3946,20 @@
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
-      <c r="O70" s="1" t="n"/>
+      <c r="O70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X70" t="b">
+        <v>0</v>
+      </c>
       <c r="Y70" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3232,9 +3997,20 @@
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n"/>
       <c r="N71" s="1" t="n"/>
-      <c r="O71" s="1" t="n"/>
+      <c r="O71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X71" t="b">
+        <v>0</v>
+      </c>
       <c r="Y71" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3272,9 +4048,20 @@
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
-      <c r="O72" s="1" t="n"/>
+      <c r="O72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X72" t="b">
+        <v>0</v>
+      </c>
       <c r="Y72" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3312,9 +4099,20 @@
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
-      <c r="O73" s="1" t="n"/>
+      <c r="O73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X73" t="b">
+        <v>0</v>
+      </c>
       <c r="Y73" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3352,9 +4150,20 @@
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
-      <c r="O74" s="1" t="n"/>
+      <c r="O74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X74" t="b">
+        <v>0</v>
+      </c>
       <c r="Y74" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3368,8 +4177,20 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+      <c r="X75" t="b">
+        <v>0</v>
+      </c>
       <c r="Y75" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3383,8 +4204,20 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+      <c r="X76" t="b">
+        <v>0</v>
+      </c>
       <c r="Y76" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3398,8 +4231,20 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+      <c r="X77" t="b">
+        <v>0</v>
+      </c>
       <c r="Y77" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3413,8 +4258,20 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+      <c r="X78" t="b">
+        <v>0</v>
+      </c>
       <c r="Y78" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AH78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
